--- a/proto-2/build/personas.xlsx
+++ b/proto-2/build/personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B703D1-0509-3F4A-B616-E65BB3911255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0F1A7-A731-8A4A-B548-73B4E10DB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="5080" windowWidth="37340" windowHeight="21720" xr2:uid="{C3832141-7B53-DF4C-AE85-B743369D99E4}"/>
+    <workbookView xWindow="5660" yWindow="13880" windowWidth="37340" windowHeight="21720" xr2:uid="{C3832141-7B53-DF4C-AE85-B743369D99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>"you live in the town while you are studying
-you may move away for work, if there's nothing suitable here"</t>
-  </si>
-  <si>
     <t>single worker</t>
   </si>
   <si>
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>Injustice</t>
+  </si>
+  <si>
+    <t>You live in the town while you are studying.
+You may move away for work, if there's nothing suitable here"</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,155 +666,155 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/personas.xlsx
+++ b/proto-2/build/personas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0F1A7-A731-8A4A-B548-73B4E10DB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CBD252-72E8-2A47-B992-C730D0E7CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="13880" windowWidth="37340" windowHeight="21720" xr2:uid="{C3832141-7B53-DF4C-AE85-B743369D99E4}"/>
+    <workbookView xWindow="11900" yWindow="5040" windowWidth="37340" windowHeight="21720" xr2:uid="{C3832141-7B53-DF4C-AE85-B743369D99E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>type</t>
   </si>
@@ -65,22 +65,7 @@
     <t>Student</t>
   </si>
   <si>
-    <t>single worker</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>retiree</t>
-  </si>
-  <si>
     <t>You've retired to the town and want to enjoy yourself</t>
-  </si>
-  <si>
-    <t>business owner</t>
-  </si>
-  <si>
-    <t>municipality manager</t>
   </si>
   <si>
     <t>You are a local shop keeper. You’ve managed your shop for years. It keeps you busy enough and financially secure, but not wealthy.</t>
@@ -207,6 +192,42 @@
   <si>
     <t>You live in the town while you are studying.
 You may move away for work, if there's nothing suitable here"</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>student.jpg</t>
+  </si>
+  <si>
+    <t>single_worker.jpg</t>
+  </si>
+  <si>
+    <t>family.jpg</t>
+  </si>
+  <si>
+    <t>retiree.jpg</t>
+  </si>
+  <si>
+    <t>business_owner.jpg</t>
+  </si>
+  <si>
+    <t>politician.jpg</t>
+  </si>
+  <si>
+    <t>Politician</t>
+  </si>
+  <si>
+    <t>Business owner</t>
+  </si>
+  <si>
+    <t>Retiree</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Single worker</t>
   </si>
 </sst>
 </file>
@@ -622,10 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF70D0A4-CC06-4044-A65C-9895CC536E91}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +659,7 @@
     <col min="3" max="8" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -660,161 +684,182 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
+      <c r="I7" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
